--- a/src/main/java/resources/bestbuy.xlsx
+++ b/src/main/java/resources/bestbuy.xlsx
@@ -120,13 +120,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,20 +410,21 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,8 +448,10 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -489,7 +491,7 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -509,7 +511,7 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -529,10 +531,9 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
@@ -547,13 +548,12 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2">
         <v>8667230925</v>
       </c>
@@ -565,11 +565,10 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2">
@@ -583,7 +582,7 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -592,7 +591,7 @@
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -603,7 +602,7 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -612,7 +611,7 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -623,7 +622,7 @@
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -632,7 +631,7 @@
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
